--- a/Jogos_do_Dia/2024-04-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -835,13 +835,13 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="K2">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="L2">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="M2">
         <v>1.33</v>
@@ -862,10 +862,10 @@
         <v>3.75</v>
       </c>
       <c r="S2">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U2">
         <v>2.25</v>
@@ -966,13 +966,13 @@
         <v>2.88</v>
       </c>
       <c r="J3">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="M3">
         <v>1.44</v>
@@ -993,10 +993,10 @@
         <v>2.95</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -1088,61 +1088,61 @@
         <v>82</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Z4">
         <v>1.15</v>
@@ -1160,13 +1160,13 @@
         <v>2.33</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K5">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="M5">
         <v>1.44</v>
@@ -1255,10 +1255,10 @@
         <v>3.2</v>
       </c>
       <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
         <v>2</v>
-      </c>
-      <c r="T5">
-        <v>1.73</v>
       </c>
       <c r="U5">
         <v>2.63</v>
@@ -1359,13 +1359,13 @@
         <v>1.4</v>
       </c>
       <c r="J6">
-        <v>21</v>
+        <v>17.94</v>
       </c>
       <c r="K6">
-        <v>8.5</v>
+        <v>11.77</v>
       </c>
       <c r="L6">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M6">
         <v>1.17</v>
@@ -1386,10 +1386,10 @@
         <v>9.5</v>
       </c>
       <c r="S6">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T6">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
         <v>1.95</v>
@@ -1490,13 +1490,13 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L7">
-        <v>4.2</v>
+        <v>4.46</v>
       </c>
       <c r="M7">
         <v>1.36</v>
@@ -1517,10 +1517,10 @@
         <v>3.58</v>
       </c>
       <c r="S7">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="T7">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U7">
         <v>1.73</v>
@@ -1621,13 +1621,13 @@
         <v>3.4</v>
       </c>
       <c r="J8">
-        <v>2.5</v>
+        <v>2.87</v>
       </c>
       <c r="K8">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="L8">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="M8">
         <v>1.4</v>
@@ -1648,10 +1648,10 @@
         <v>3.44</v>
       </c>
       <c r="S8">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U8">
         <v>1.67</v>
@@ -1752,13 +1752,13 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.63</v>
       </c>
       <c r="M9">
         <v>1.36</v>
@@ -1779,10 +1779,10 @@
         <v>3.3</v>
       </c>
       <c r="S9">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="U9">
         <v>1.75</v>
@@ -1883,13 +1883,13 @@
         <v>3.5</v>
       </c>
       <c r="J10">
-        <v>3.5</v>
+        <v>5.19</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="L10">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="M10">
         <v>1.53</v>
@@ -1910,10 +1910,10 @@
         <v>2.8</v>
       </c>
       <c r="S10">
-        <v>2.35</v>
+        <v>2.24</v>
       </c>
       <c r="T10">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U10">
         <v>1.95</v>
@@ -2014,13 +2014,13 @@
         <v>13</v>
       </c>
       <c r="J11">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>12.24</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>16.28</v>
       </c>
       <c r="M11">
         <v>1.14</v>
@@ -2041,10 +2041,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="S11">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="T11">
-        <v>2.63</v>
+        <v>4.2</v>
       </c>
       <c r="U11">
         <v>1.95</v>
@@ -2145,13 +2145,13 @@
         <v>2.9</v>
       </c>
       <c r="J12">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="K12">
-        <v>3.65</v>
+        <v>3.52</v>
       </c>
       <c r="L12">
-        <v>2.51</v>
+        <v>2.43</v>
       </c>
       <c r="M12">
         <v>1.29</v>
@@ -2172,10 +2172,10 @@
         <v>4.5</v>
       </c>
       <c r="S12">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="T12">
-        <v>2.3</v>
+        <v>2.39</v>
       </c>
       <c r="U12">
         <v>1.5</v>
@@ -2208,43 +2208,43 @@
         <v>3.56</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2276,13 +2276,13 @@
         <v>5.2</v>
       </c>
       <c r="J13">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="K13">
-        <v>4.4</v>
+        <v>4.69</v>
       </c>
       <c r="L13">
-        <v>5.75</v>
+        <v>6.09</v>
       </c>
       <c r="M13">
         <v>1.25</v>
@@ -2303,10 +2303,10 @@
         <v>5</v>
       </c>
       <c r="S13">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="T13">
-        <v>2.52</v>
+        <v>2.35</v>
       </c>
       <c r="U13">
         <v>1.62</v>
@@ -2339,43 +2339,43 @@
         <v>2.77</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>4.64</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2407,13 +2407,13 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="K14">
-        <v>4.3</v>
+        <v>4.42</v>
       </c>
       <c r="L14">
-        <v>5.15</v>
+        <v>5.29</v>
       </c>
       <c r="M14">
         <v>1.29</v>
@@ -2434,10 +2434,10 @@
         <v>4.5</v>
       </c>
       <c r="S14">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="T14">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="U14">
         <v>1.65</v>
@@ -2470,43 +2470,43 @@
         <v>3.4</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2538,13 +2538,13 @@
         <v>5.5</v>
       </c>
       <c r="J15">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="K15">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>5.73</v>
       </c>
       <c r="M15">
         <v>1.29</v>
@@ -2565,10 +2565,10 @@
         <v>4.75</v>
       </c>
       <c r="S15">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="T15">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="U15">
         <v>1.67</v>
@@ -2669,13 +2669,13 @@
         <v>3.5</v>
       </c>
       <c r="J16">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="K16">
-        <v>3.9</v>
+        <v>3.82</v>
       </c>
       <c r="L16">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="M16">
         <v>1.22</v>
@@ -2800,13 +2800,13 @@
         <v>1.5</v>
       </c>
       <c r="J17">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="K17">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="M17">
         <v>1.55</v>
@@ -2827,10 +2827,10 @@
         <v>2.37</v>
       </c>
       <c r="S17">
-        <v>2.48</v>
+        <v>2.49</v>
       </c>
       <c r="T17">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U17">
         <v>2.2</v>
@@ -2931,13 +2931,13 @@
         <v>6.18</v>
       </c>
       <c r="J18">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="K18">
-        <v>3.31</v>
+        <v>3.49</v>
       </c>
       <c r="L18">
-        <v>4.84</v>
+        <v>5.73</v>
       </c>
       <c r="M18">
         <v>1.45</v>
@@ -3062,13 +3062,13 @@
         <v>4.78</v>
       </c>
       <c r="J19">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="K19">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="L19">
-        <v>4.2</v>
+        <v>4.22</v>
       </c>
       <c r="M19">
         <v>1.45</v>
@@ -3089,10 +3089,10 @@
         <v>2.8</v>
       </c>
       <c r="S19">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T19">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U19">
         <v>1.91</v>

--- a/Jogos_do_Dia/2024-04-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -160,12 +160,12 @@
     <t>Spain La Liga</t>
   </si>
   <si>
+    <t>Switzerland Super League</t>
+  </si>
+  <si>
     <t>England Premier League</t>
   </si>
   <si>
-    <t>Switzerland Super League</t>
-  </si>
-  <si>
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
@@ -229,18 +229,18 @@
     <t>Granada CF</t>
   </si>
   <si>
+    <t>Young Boys</t>
+  </si>
+  <si>
+    <t>Luzern</t>
+  </si>
+  <si>
     <t>Liverpool</t>
   </si>
   <si>
     <t>Lausanne Sport</t>
   </si>
   <si>
-    <t>Luzern</t>
-  </si>
-  <si>
-    <t>Young Boys</t>
-  </si>
-  <si>
     <t>Ajax</t>
   </si>
   <si>
@@ -283,16 +283,16 @@
     <t>Valencia CF</t>
   </si>
   <si>
+    <t>Grasshopper</t>
+  </si>
+  <si>
+    <t>Yverdon Sport</t>
+  </si>
+  <si>
     <t>Sheffield United</t>
   </si>
   <si>
     <t>St. Gallen</t>
-  </si>
-  <si>
-    <t>Yverdon Sport</t>
-  </si>
-  <si>
-    <t>Grasshopper</t>
   </si>
   <si>
     <t>Go Ahead Eagles</t>
@@ -835,13 +835,13 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="K2">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L2">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <v>1.33</v>
@@ -966,13 +966,13 @@
         <v>2.88</v>
       </c>
       <c r="J3">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L3">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="M3">
         <v>1.44</v>
@@ -1097,13 +1097,13 @@
         <v>4.33</v>
       </c>
       <c r="J4">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K4">
+        <v>3.3</v>
+      </c>
+      <c r="L4">
         <v>3.5</v>
-      </c>
-      <c r="L4">
-        <v>3.75</v>
       </c>
       <c r="M4">
         <v>1.4</v>
@@ -1127,7 +1127,7 @@
         <v>2.1</v>
       </c>
       <c r="T4">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="U4">
         <v>1.85</v>
@@ -1169,34 +1169,34 @@
         <v>2.4</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1228,13 +1228,13 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5">
         <v>1.44</v>
@@ -1255,10 +1255,10 @@
         <v>3.2</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="U5">
         <v>2.63</v>
@@ -1359,13 +1359,13 @@
         <v>1.4</v>
       </c>
       <c r="J6">
-        <v>17.94</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>11.77</v>
+        <v>11</v>
       </c>
       <c r="L6">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="M6">
         <v>1.17</v>
@@ -1386,10 +1386,10 @@
         <v>9.5</v>
       </c>
       <c r="S6">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T6">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="U6">
         <v>1.95</v>
@@ -1490,13 +1490,13 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="K7">
+        <v>3.6</v>
+      </c>
+      <c r="L7">
         <v>3.8</v>
-      </c>
-      <c r="L7">
-        <v>4.46</v>
       </c>
       <c r="M7">
         <v>1.36</v>
@@ -1517,10 +1517,10 @@
         <v>3.58</v>
       </c>
       <c r="S7">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="T7">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U7">
         <v>1.73</v>
@@ -1621,13 +1621,13 @@
         <v>3.4</v>
       </c>
       <c r="J8">
-        <v>2.87</v>
+        <v>2.43</v>
       </c>
       <c r="K8">
-        <v>3.31</v>
+        <v>3.25</v>
       </c>
       <c r="L8">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="M8">
         <v>1.4</v>
@@ -1648,10 +1648,10 @@
         <v>3.44</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="T8">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="U8">
         <v>1.67</v>
@@ -1752,13 +1752,13 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="K9">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="L9">
-        <v>3.63</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
         <v>1.36</v>
@@ -1779,10 +1779,10 @@
         <v>3.3</v>
       </c>
       <c r="S9">
+        <v>1.77</v>
+      </c>
+      <c r="T9">
         <v>1.97</v>
-      </c>
-      <c r="T9">
-        <v>1.88</v>
       </c>
       <c r="U9">
         <v>1.75</v>
@@ -1883,13 +1883,13 @@
         <v>3.5</v>
       </c>
       <c r="J10">
-        <v>5.19</v>
+        <v>2.9</v>
       </c>
       <c r="K10">
-        <v>2.93</v>
+        <v>3.05</v>
       </c>
       <c r="L10">
-        <v>1.88</v>
+        <v>2.65</v>
       </c>
       <c r="M10">
         <v>1.53</v>
@@ -1910,10 +1910,10 @@
         <v>2.8</v>
       </c>
       <c r="S10">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="T10">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U10">
         <v>1.95</v>
@@ -1996,7 +1996,7 @@
         <v>58</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>71</v>
@@ -2005,120 +2005,120 @@
         <v>89</v>
       </c>
       <c r="G11">
-        <v>1.36</v>
+        <v>2.05</v>
       </c>
       <c r="H11">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="K11">
-        <v>12.24</v>
+        <v>4.4</v>
       </c>
       <c r="L11">
-        <v>16.28</v>
+        <v>5.25</v>
       </c>
       <c r="M11">
+        <v>1.29</v>
+      </c>
+      <c r="N11">
+        <v>3.4</v>
+      </c>
+      <c r="O11">
+        <v>1.02</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>1.17</v>
+      </c>
+      <c r="R11">
+        <v>4.5</v>
+      </c>
+      <c r="S11">
+        <v>1.59</v>
+      </c>
+      <c r="T11">
+        <v>2.38</v>
+      </c>
+      <c r="U11">
+        <v>1.65</v>
+      </c>
+      <c r="V11">
+        <v>2.1</v>
+      </c>
+      <c r="W11">
+        <v>1.17</v>
+      </c>
+      <c r="X11">
+        <v>1.22</v>
+      </c>
+      <c r="Y11">
+        <v>2.4</v>
+      </c>
+      <c r="Z11">
+        <v>2.5</v>
+      </c>
+      <c r="AA11">
+        <v>0.64</v>
+      </c>
+      <c r="AB11">
+        <v>2.05</v>
+      </c>
+      <c r="AC11">
+        <v>1.35</v>
+      </c>
+      <c r="AD11">
+        <v>3.4</v>
+      </c>
+      <c r="AE11">
+        <v>1.41</v>
+      </c>
+      <c r="AF11">
+        <v>9.5</v>
+      </c>
+      <c r="AG11">
+        <v>3.48</v>
+      </c>
+      <c r="AH11">
         <v>1.14</v>
       </c>
-      <c r="N11">
-        <v>5.5</v>
-      </c>
-      <c r="O11">
-        <v>1.01</v>
-      </c>
-      <c r="P11">
-        <v>50</v>
-      </c>
-      <c r="Q11">
-        <v>1.02</v>
-      </c>
-      <c r="R11">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="S11">
-        <v>1.22</v>
-      </c>
-      <c r="T11">
-        <v>4.2</v>
-      </c>
-      <c r="U11">
-        <v>1.95</v>
-      </c>
-      <c r="V11">
-        <v>1.8</v>
-      </c>
-      <c r="W11">
-        <v>1.02</v>
-      </c>
-      <c r="X11">
-        <v>1.03</v>
-      </c>
-      <c r="Y11">
-        <v>7.6</v>
-      </c>
-      <c r="Z11">
-        <v>2.6</v>
-      </c>
-      <c r="AA11">
-        <v>0.43</v>
-      </c>
-      <c r="AB11">
-        <v>2.35</v>
-      </c>
-      <c r="AC11">
-        <v>0.93</v>
-      </c>
-      <c r="AD11">
-        <v>3.28</v>
-      </c>
-      <c r="AE11">
-        <v>1.09</v>
-      </c>
-      <c r="AF11">
-        <v>17</v>
-      </c>
-      <c r="AG11">
-        <v>11.5</v>
-      </c>
-      <c r="AH11">
-        <v>1.16</v>
-      </c>
       <c r="AI11">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="AJ11">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AK11">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="AL11">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AM11">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AN11">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AO11">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="AP11">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="AQ11">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="2">
         <v>45386</v>
@@ -2136,103 +2136,103 @@
         <v>90</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="H12">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="I12">
-        <v>2.9</v>
+        <v>5.2</v>
       </c>
       <c r="J12">
-        <v>2.42</v>
+        <v>1.45</v>
       </c>
       <c r="K12">
-        <v>3.52</v>
+        <v>4.8</v>
       </c>
       <c r="L12">
-        <v>2.43</v>
+        <v>6.5</v>
       </c>
       <c r="M12">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="N12">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O12">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P12">
         <v>11</v>
       </c>
       <c r="Q12">
+        <v>1.14</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>1.45</v>
+      </c>
+      <c r="T12">
+        <v>2.52</v>
+      </c>
+      <c r="U12">
+        <v>1.62</v>
+      </c>
+      <c r="V12">
+        <v>2.15</v>
+      </c>
+      <c r="W12">
+        <v>1.06</v>
+      </c>
+      <c r="X12">
         <v>1.17</v>
       </c>
-      <c r="R12">
-        <v>4.5</v>
-      </c>
-      <c r="S12">
-        <v>1.58</v>
-      </c>
-      <c r="T12">
-        <v>2.39</v>
-      </c>
-      <c r="U12">
-        <v>1.5</v>
-      </c>
-      <c r="V12">
-        <v>2.4</v>
-      </c>
-      <c r="W12">
-        <v>1.53</v>
-      </c>
-      <c r="X12">
-        <v>1.3</v>
-      </c>
       <c r="Y12">
-        <v>1.48</v>
+        <v>2.85</v>
       </c>
       <c r="Z12">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AA12">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="AB12">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AC12">
-        <v>1.81</v>
+        <v>1.13</v>
       </c>
       <c r="AD12">
-        <v>3.56</v>
+        <v>2.77</v>
       </c>
       <c r="AE12">
-        <v>1.95</v>
+        <v>1.26</v>
       </c>
       <c r="AF12">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AG12">
-        <v>2.1</v>
+        <v>4.64</v>
       </c>
       <c r="AH12">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AI12">
         <v>4.9</v>
       </c>
       <c r="AJ12">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AK12">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="AL12">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AM12">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="AN12">
         <v>1.88</v>
@@ -2241,7 +2241,7 @@
         <v>1.92</v>
       </c>
       <c r="AP12">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="AQ12">
         <v>1.57</v>
@@ -2258,7 +2258,7 @@
         <v>58</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
         <v>73</v>
@@ -2267,120 +2267,120 @@
         <v>91</v>
       </c>
       <c r="G13">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="H13">
+        <v>3.75</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>1.1</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>21</v>
+      </c>
+      <c r="M13">
+        <v>1.14</v>
+      </c>
+      <c r="N13">
+        <v>5.5</v>
+      </c>
+      <c r="O13">
+        <v>1.01</v>
+      </c>
+      <c r="P13">
+        <v>50</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="S13">
+        <v>1.41</v>
+      </c>
+      <c r="T13">
+        <v>2.63</v>
+      </c>
+      <c r="U13">
+        <v>1.95</v>
+      </c>
+      <c r="V13">
+        <v>1.8</v>
+      </c>
+      <c r="W13">
+        <v>1.02</v>
+      </c>
+      <c r="X13">
+        <v>1.03</v>
+      </c>
+      <c r="Y13">
+        <v>7.6</v>
+      </c>
+      <c r="Z13">
         <v>2.6</v>
-      </c>
-      <c r="I13">
-        <v>5.2</v>
-      </c>
-      <c r="J13">
-        <v>1.39</v>
-      </c>
-      <c r="K13">
-        <v>4.69</v>
-      </c>
-      <c r="L13">
-        <v>6.09</v>
-      </c>
-      <c r="M13">
-        <v>1.25</v>
-      </c>
-      <c r="N13">
-        <v>3.6</v>
-      </c>
-      <c r="O13">
-        <v>1.02</v>
-      </c>
-      <c r="P13">
-        <v>11</v>
-      </c>
-      <c r="Q13">
-        <v>1.14</v>
-      </c>
-      <c r="R13">
-        <v>5</v>
-      </c>
-      <c r="S13">
-        <v>1.53</v>
-      </c>
-      <c r="T13">
-        <v>2.35</v>
-      </c>
-      <c r="U13">
-        <v>1.62</v>
-      </c>
-      <c r="V13">
-        <v>2.15</v>
-      </c>
-      <c r="W13">
-        <v>1.06</v>
-      </c>
-      <c r="X13">
-        <v>1.17</v>
-      </c>
-      <c r="Y13">
-        <v>2.85</v>
-      </c>
-      <c r="Z13">
-        <v>1.86</v>
       </c>
       <c r="AA13">
         <v>0.43</v>
       </c>
       <c r="AB13">
-        <v>1.64</v>
+        <v>2.35</v>
       </c>
       <c r="AC13">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AD13">
-        <v>2.77</v>
+        <v>3.28</v>
       </c>
       <c r="AE13">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="AF13">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AG13">
-        <v>4.64</v>
+        <v>11.5</v>
       </c>
       <c r="AH13">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AI13">
-        <v>4.9</v>
+        <v>4.35</v>
       </c>
       <c r="AJ13">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AK13">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AL13">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AM13">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AN13">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AO13">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="AP13">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="AQ13">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>45386</v>
@@ -2398,34 +2398,34 @@
         <v>92</v>
       </c>
       <c r="G14">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="J14">
-        <v>1.52</v>
+        <v>2.55</v>
       </c>
       <c r="K14">
-        <v>4.42</v>
+        <v>3.45</v>
       </c>
       <c r="L14">
-        <v>5.29</v>
+        <v>2.55</v>
       </c>
       <c r="M14">
         <v>1.29</v>
       </c>
       <c r="N14">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O14">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q14">
         <v>1.17</v>
@@ -2434,79 +2434,79 @@
         <v>4.5</v>
       </c>
       <c r="S14">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="T14">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="U14">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="V14">
+        <v>2.4</v>
+      </c>
+      <c r="W14">
+        <v>1.53</v>
+      </c>
+      <c r="X14">
+        <v>1.3</v>
+      </c>
+      <c r="Y14">
+        <v>1.48</v>
+      </c>
+      <c r="Z14">
+        <v>1.57</v>
+      </c>
+      <c r="AA14">
+        <v>0.71</v>
+      </c>
+      <c r="AB14">
+        <v>1.75</v>
+      </c>
+      <c r="AC14">
+        <v>1.81</v>
+      </c>
+      <c r="AD14">
+        <v>3.56</v>
+      </c>
+      <c r="AE14">
+        <v>1.95</v>
+      </c>
+      <c r="AF14">
+        <v>8.5</v>
+      </c>
+      <c r="AG14">
         <v>2.1</v>
       </c>
-      <c r="W14">
-        <v>1.17</v>
-      </c>
-      <c r="X14">
-        <v>1.22</v>
-      </c>
-      <c r="Y14">
-        <v>2.4</v>
-      </c>
-      <c r="Z14">
-        <v>2.5</v>
-      </c>
-      <c r="AA14">
-        <v>0.64</v>
-      </c>
-      <c r="AB14">
-        <v>2.05</v>
-      </c>
-      <c r="AC14">
+      <c r="AH14">
+        <v>1.12</v>
+      </c>
+      <c r="AI14">
+        <v>4.9</v>
+      </c>
+      <c r="AJ14">
         <v>1.35</v>
       </c>
-      <c r="AD14">
-        <v>3.4</v>
-      </c>
-      <c r="AE14">
-        <v>1.41</v>
-      </c>
-      <c r="AF14">
-        <v>9.5</v>
-      </c>
-      <c r="AG14">
-        <v>3.48</v>
-      </c>
-      <c r="AH14">
-        <v>1.14</v>
-      </c>
-      <c r="AI14">
-        <v>4.65</v>
-      </c>
-      <c r="AJ14">
-        <v>1.28</v>
-      </c>
       <c r="AK14">
-        <v>3.35</v>
+        <v>2.95</v>
       </c>
       <c r="AL14">
+        <v>1.54</v>
+      </c>
+      <c r="AM14">
+        <v>2.42</v>
+      </c>
+      <c r="AN14">
+        <v>1.88</v>
+      </c>
+      <c r="AO14">
+        <v>1.92</v>
+      </c>
+      <c r="AP14">
+        <v>2.36</v>
+      </c>
+      <c r="AQ14">
         <v>1.57</v>
-      </c>
-      <c r="AM14">
-        <v>2.33</v>
-      </c>
-      <c r="AN14">
-        <v>1.94</v>
-      </c>
-      <c r="AO14">
-        <v>1.85</v>
-      </c>
-      <c r="AP14">
-        <v>2.42</v>
-      </c>
-      <c r="AQ14">
-        <v>1.53</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2538,13 +2538,13 @@
         <v>5.5</v>
       </c>
       <c r="J15">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="K15">
         <v>4.7</v>
       </c>
       <c r="L15">
-        <v>5.73</v>
+        <v>6</v>
       </c>
       <c r="M15">
         <v>1.29</v>
@@ -2565,10 +2565,10 @@
         <v>4.75</v>
       </c>
       <c r="S15">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="T15">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="U15">
         <v>1.67</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>45386</v>
@@ -2669,13 +2669,13 @@
         <v>3.5</v>
       </c>
       <c r="J16">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>3.82</v>
+        <v>4.1</v>
       </c>
       <c r="L16">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
         <v>1.22</v>
@@ -2791,22 +2791,22 @@
         <v>95</v>
       </c>
       <c r="G17">
-        <v>1.5</v>
+        <v>2.88</v>
       </c>
       <c r="H17">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="I17">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="J17">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="L17">
-        <v>3.68</v>
+        <v>4.2</v>
       </c>
       <c r="M17">
         <v>1.55</v>
@@ -2821,22 +2821,22 @@
         <v>2</v>
       </c>
       <c r="Q17">
+        <v>1.54</v>
+      </c>
+      <c r="R17">
+        <v>2.39</v>
+      </c>
+      <c r="S17">
+        <v>2.75</v>
+      </c>
+      <c r="T17">
+        <v>1.4</v>
+      </c>
+      <c r="U17">
+        <v>2.38</v>
+      </c>
+      <c r="V17">
         <v>1.53</v>
-      </c>
-      <c r="R17">
-        <v>2.37</v>
-      </c>
-      <c r="S17">
-        <v>2.49</v>
-      </c>
-      <c r="T17">
-        <v>1.36</v>
-      </c>
-      <c r="U17">
-        <v>2.2</v>
-      </c>
-      <c r="V17">
-        <v>1.62</v>
       </c>
       <c r="W17">
         <v>1.02</v>
@@ -2863,13 +2863,13 @@
         <v>2.4</v>
       </c>
       <c r="AE17">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AF17">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="AG17">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="AH17">
         <v>1.36</v>
@@ -2878,16 +2878,16 @@
         <v>2.79</v>
       </c>
       <c r="AJ17">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AK17">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="AL17">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="AM17">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AN17">
         <v>2.84</v>
@@ -2896,10 +2896,10 @@
         <v>1.35</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2922,22 +2922,22 @@
         <v>96</v>
       </c>
       <c r="G18">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="H18">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I18">
-        <v>6.18</v>
+        <v>5.5</v>
       </c>
       <c r="J18">
         <v>1.6</v>
       </c>
       <c r="K18">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="L18">
-        <v>5.73</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <v>1.45</v>
@@ -2958,16 +2958,16 @@
         <v>2.88</v>
       </c>
       <c r="S18">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T18">
         <v>1.65</v>
       </c>
       <c r="U18">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V18">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W18">
         <v>1.14</v>
@@ -3009,22 +3009,22 @@
         <v>3.2</v>
       </c>
       <c r="AJ18">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AK18">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AL18">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AM18">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AN18">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="AO18">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AP18">
         <v>3.42</v>
@@ -3053,22 +3053,22 @@
         <v>97</v>
       </c>
       <c r="G19">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="H19">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="I19">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="J19">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="K19">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="L19">
-        <v>4.22</v>
+        <v>4.5</v>
       </c>
       <c r="M19">
         <v>1.45</v>
@@ -3089,16 +3089,16 @@
         <v>2.8</v>
       </c>
       <c r="S19">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T19">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U19">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W19">
         <v>1.25</v>
@@ -3125,13 +3125,13 @@
         <v>2.54</v>
       </c>
       <c r="AE19">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="AF19">
         <v>8.4</v>
       </c>
       <c r="AG19">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AH19">
         <v>1.35</v>
@@ -3140,16 +3140,16 @@
         <v>2.84</v>
       </c>
       <c r="AJ19">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="AK19">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="AL19">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="AM19">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AN19">
         <v>2.79</v>

--- a/Jogos_do_Dia/2024-04-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -223,18 +223,18 @@
     <t>İstanbul Başakşehir</t>
   </si>
   <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
     <t>RKC Waalwijk</t>
   </si>
   <si>
-    <t>Granada CF</t>
+    <t>Luzern</t>
   </si>
   <si>
     <t>Young Boys</t>
   </si>
   <si>
-    <t>Luzern</t>
-  </si>
-  <si>
     <t>Liverpool</t>
   </si>
   <si>
@@ -277,16 +277,16 @@
     <t>Beşiktaş</t>
   </si>
   <si>
+    <t>Valencia CF</t>
+  </si>
+  <si>
     <t>Almere City</t>
   </si>
   <si>
-    <t>Valencia CF</t>
+    <t>Yverdon Sport</t>
   </si>
   <si>
     <t>Grasshopper</t>
-  </si>
-  <si>
-    <t>Yverdon Sport</t>
   </si>
   <si>
     <t>Sheffield United</t>
@@ -835,13 +835,13 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="K2">
-        <v>3.75</v>
+        <v>5.05</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="M2">
         <v>1.33</v>
@@ -862,10 +862,10 @@
         <v>3.75</v>
       </c>
       <c r="S2">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="T2">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="U2">
         <v>2.25</v>
@@ -883,10 +883,10 @@
         <v>3.1</v>
       </c>
       <c r="Z2">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AA2">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AB2">
         <v>1.47</v>
@@ -966,13 +966,13 @@
         <v>2.88</v>
       </c>
       <c r="J3">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="K3">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="M3">
         <v>1.44</v>
@@ -993,10 +993,10 @@
         <v>2.95</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T3">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -1014,10 +1014,10 @@
         <v>1.25</v>
       </c>
       <c r="Z3">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AA3">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AB3">
         <v>1.48</v>
@@ -1097,13 +1097,13 @@
         <v>4.33</v>
       </c>
       <c r="J4">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="K4">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
         <v>1.4</v>
@@ -1127,7 +1127,7 @@
         <v>2.1</v>
       </c>
       <c r="T4">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U4">
         <v>1.85</v>
@@ -1145,10 +1145,10 @@
         <v>1.74</v>
       </c>
       <c r="Z4">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AA4">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AB4">
         <v>1.26</v>
@@ -1228,13 +1228,13 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="K5">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="M5">
         <v>1.44</v>
@@ -1255,10 +1255,10 @@
         <v>3.2</v>
       </c>
       <c r="S5">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U5">
         <v>2.63</v>
@@ -1359,13 +1359,13 @@
         <v>1.4</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="L6">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="M6">
         <v>1.17</v>
@@ -1386,10 +1386,10 @@
         <v>9.5</v>
       </c>
       <c r="S6">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T6">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="U6">
         <v>1.95</v>
@@ -1490,13 +1490,13 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L7">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M7">
         <v>1.36</v>
@@ -1517,10 +1517,10 @@
         <v>3.58</v>
       </c>
       <c r="S7">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U7">
         <v>1.73</v>
@@ -1621,13 +1621,13 @@
         <v>3.4</v>
       </c>
       <c r="J8">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="K8">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L8">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="M8">
         <v>1.4</v>
@@ -1648,10 +1648,10 @@
         <v>3.44</v>
       </c>
       <c r="S8">
+        <v>1.96</v>
+      </c>
+      <c r="T8">
         <v>1.91</v>
-      </c>
-      <c r="T8">
-        <v>1.89</v>
       </c>
       <c r="U8">
         <v>1.67</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
         <v>45386</v>
@@ -1734,7 +1734,7 @@
         <v>57</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
@@ -1743,120 +1743,120 @@
         <v>87</v>
       </c>
       <c r="G9">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="H9">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J9">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="K9">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>2.17</v>
       </c>
       <c r="M9">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="O9">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="P9">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q9">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="R9">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="S9">
-        <v>1.77</v>
+        <v>2.3</v>
       </c>
       <c r="T9">
-        <v>1.97</v>
+        <v>1.62</v>
       </c>
       <c r="U9">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X9">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Y9">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="Z9">
+        <v>0.86</v>
+      </c>
+      <c r="AA9">
+        <v>0.86</v>
+      </c>
+      <c r="AB9">
+        <v>1.42</v>
+      </c>
+      <c r="AC9">
         <v>1.07</v>
       </c>
-      <c r="AA9">
-        <v>1.23</v>
-      </c>
-      <c r="AB9">
-        <v>1.23</v>
-      </c>
-      <c r="AC9">
-        <v>1.23</v>
-      </c>
       <c r="AD9">
-        <v>2.46</v>
+        <v>2.49</v>
       </c>
       <c r="AE9">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="AF9">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG9">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="AH9">
+        <v>1.48</v>
+      </c>
+      <c r="AI9">
+        <v>2.35</v>
+      </c>
+      <c r="AJ9">
+        <v>1.85</v>
+      </c>
+      <c r="AK9">
+        <v>1.84</v>
+      </c>
+      <c r="AL9">
+        <v>2.38</v>
+      </c>
+      <c r="AM9">
+        <v>1.49</v>
+      </c>
+      <c r="AN9">
+        <v>3.1</v>
+      </c>
+      <c r="AO9">
         <v>1.28</v>
       </c>
-      <c r="AI9">
-        <v>3.05</v>
-      </c>
-      <c r="AJ9">
-        <v>1.54</v>
-      </c>
-      <c r="AK9">
-        <v>2.25</v>
-      </c>
-      <c r="AL9">
-        <v>1.92</v>
-      </c>
-      <c r="AM9">
-        <v>1.77</v>
-      </c>
-      <c r="AN9">
-        <v>2.45</v>
-      </c>
-      <c r="AO9">
-        <v>1.45</v>
-      </c>
       <c r="AP9">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="AQ9">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2">
         <v>45386</v>
@@ -1865,7 +1865,7 @@
         <v>57</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>70</v>
@@ -1874,115 +1874,115 @@
         <v>88</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="H10">
+        <v>2.2</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>2.07</v>
+      </c>
+      <c r="K10">
+        <v>3.75</v>
+      </c>
+      <c r="L10">
+        <v>3.35</v>
+      </c>
+      <c r="M10">
+        <v>1.36</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <v>1.29</v>
+      </c>
+      <c r="R10">
+        <v>3.3</v>
+      </c>
+      <c r="S10">
+        <v>1.91</v>
+      </c>
+      <c r="T10">
         <v>1.95</v>
       </c>
-      <c r="I10">
-        <v>3.5</v>
-      </c>
-      <c r="J10">
-        <v>2.9</v>
-      </c>
-      <c r="K10">
+      <c r="U10">
+        <v>1.75</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>1.33</v>
+      </c>
+      <c r="X10">
+        <v>1.3</v>
+      </c>
+      <c r="Y10">
+        <v>1.73</v>
+      </c>
+      <c r="Z10">
+        <v>1.07</v>
+      </c>
+      <c r="AA10">
+        <v>1.23</v>
+      </c>
+      <c r="AB10">
+        <v>1.23</v>
+      </c>
+      <c r="AC10">
+        <v>1.23</v>
+      </c>
+      <c r="AD10">
+        <v>2.46</v>
+      </c>
+      <c r="AE10">
+        <v>1.71</v>
+      </c>
+      <c r="AF10">
+        <v>7.5</v>
+      </c>
+      <c r="AG10">
+        <v>2.5</v>
+      </c>
+      <c r="AH10">
+        <v>1.28</v>
+      </c>
+      <c r="AI10">
         <v>3.05</v>
       </c>
-      <c r="L10">
-        <v>2.65</v>
-      </c>
-      <c r="M10">
-        <v>1.53</v>
-      </c>
-      <c r="N10">
-        <v>2.38</v>
-      </c>
-      <c r="O10">
-        <v>1.09</v>
-      </c>
-      <c r="P10">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>1.42</v>
-      </c>
-      <c r="R10">
-        <v>2.8</v>
-      </c>
-      <c r="S10">
-        <v>2.3</v>
-      </c>
-      <c r="T10">
-        <v>1.62</v>
-      </c>
-      <c r="U10">
-        <v>1.95</v>
-      </c>
-      <c r="V10">
-        <v>1.8</v>
-      </c>
-      <c r="W10">
-        <v>1.4</v>
-      </c>
-      <c r="X10">
-        <v>1.32</v>
-      </c>
-      <c r="Y10">
-        <v>1.43</v>
-      </c>
-      <c r="Z10">
-        <v>0.86</v>
-      </c>
-      <c r="AA10">
-        <v>0.86</v>
-      </c>
-      <c r="AB10">
-        <v>1.42</v>
-      </c>
-      <c r="AC10">
-        <v>1.07</v>
-      </c>
-      <c r="AD10">
-        <v>2.49</v>
-      </c>
-      <c r="AE10">
-        <v>1.93</v>
-      </c>
-      <c r="AF10">
-        <v>7</v>
-      </c>
-      <c r="AG10">
-        <v>2.17</v>
-      </c>
-      <c r="AH10">
-        <v>1.48</v>
-      </c>
-      <c r="AI10">
-        <v>2.35</v>
-      </c>
       <c r="AJ10">
-        <v>1.85</v>
+        <v>1.54</v>
       </c>
       <c r="AK10">
-        <v>1.84</v>
+        <v>2.25</v>
       </c>
       <c r="AL10">
-        <v>2.38</v>
+        <v>1.92</v>
       </c>
       <c r="AM10">
-        <v>1.49</v>
+        <v>1.77</v>
       </c>
       <c r="AN10">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="AO10">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AP10">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="AQ10">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2005,115 +2005,115 @@
         <v>89</v>
       </c>
       <c r="G11">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H11">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J11">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="K11">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L11">
-        <v>5.25</v>
+        <v>5.8</v>
       </c>
       <c r="M11">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="N11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O11">
         <v>1.02</v>
       </c>
       <c r="P11">
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <v>1.14</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>1.55</v>
+      </c>
+      <c r="T11">
+        <v>2.35</v>
+      </c>
+      <c r="U11">
+        <v>1.62</v>
+      </c>
+      <c r="V11">
+        <v>2.15</v>
+      </c>
+      <c r="W11">
+        <v>1.06</v>
+      </c>
+      <c r="X11">
+        <v>1.17</v>
+      </c>
+      <c r="Y11">
+        <v>2.85</v>
+      </c>
+      <c r="Z11">
+        <v>1.86</v>
+      </c>
+      <c r="AA11">
+        <v>0.43</v>
+      </c>
+      <c r="AB11">
+        <v>1.64</v>
+      </c>
+      <c r="AC11">
+        <v>1.13</v>
+      </c>
+      <c r="AD11">
+        <v>2.77</v>
+      </c>
+      <c r="AE11">
+        <v>1.26</v>
+      </c>
+      <c r="AF11">
         <v>10</v>
       </c>
-      <c r="Q11">
-        <v>1.17</v>
-      </c>
-      <c r="R11">
-        <v>4.5</v>
-      </c>
-      <c r="S11">
-        <v>1.59</v>
-      </c>
-      <c r="T11">
-        <v>2.38</v>
-      </c>
-      <c r="U11">
-        <v>1.65</v>
-      </c>
-      <c r="V11">
-        <v>2.1</v>
-      </c>
-      <c r="W11">
-        <v>1.17</v>
-      </c>
-      <c r="X11">
-        <v>1.22</v>
-      </c>
-      <c r="Y11">
-        <v>2.4</v>
-      </c>
-      <c r="Z11">
-        <v>2.5</v>
-      </c>
-      <c r="AA11">
-        <v>0.64</v>
-      </c>
-      <c r="AB11">
-        <v>2.05</v>
-      </c>
-      <c r="AC11">
-        <v>1.35</v>
-      </c>
-      <c r="AD11">
-        <v>3.4</v>
-      </c>
-      <c r="AE11">
-        <v>1.41</v>
-      </c>
-      <c r="AF11">
-        <v>9.5</v>
-      </c>
       <c r="AG11">
-        <v>3.48</v>
+        <v>4.64</v>
       </c>
       <c r="AH11">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AI11">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="AJ11">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AK11">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AL11">
+        <v>1.53</v>
+      </c>
+      <c r="AM11">
+        <v>2.43</v>
+      </c>
+      <c r="AN11">
+        <v>1.88</v>
+      </c>
+      <c r="AO11">
+        <v>1.92</v>
+      </c>
+      <c r="AP11">
+        <v>2.34</v>
+      </c>
+      <c r="AQ11">
         <v>1.57</v>
-      </c>
-      <c r="AM11">
-        <v>2.33</v>
-      </c>
-      <c r="AN11">
-        <v>1.94</v>
-      </c>
-      <c r="AO11">
-        <v>1.85</v>
-      </c>
-      <c r="AP11">
-        <v>2.42</v>
-      </c>
-      <c r="AQ11">
-        <v>1.53</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2136,115 +2136,115 @@
         <v>90</v>
       </c>
       <c r="G12">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="H12">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="I12">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="K12">
-        <v>4.8</v>
+        <v>4.35</v>
       </c>
       <c r="L12">
-        <v>6.5</v>
+        <v>4.9</v>
       </c>
       <c r="M12">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O12">
         <v>1.02</v>
       </c>
       <c r="P12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q12">
+        <v>1.17</v>
+      </c>
+      <c r="R12">
+        <v>4.5</v>
+      </c>
+      <c r="S12">
+        <v>1.57</v>
+      </c>
+      <c r="T12">
+        <v>2.25</v>
+      </c>
+      <c r="U12">
+        <v>1.65</v>
+      </c>
+      <c r="V12">
+        <v>2.1</v>
+      </c>
+      <c r="W12">
+        <v>1.17</v>
+      </c>
+      <c r="X12">
+        <v>1.22</v>
+      </c>
+      <c r="Y12">
+        <v>2.4</v>
+      </c>
+      <c r="Z12">
+        <v>2.5</v>
+      </c>
+      <c r="AA12">
+        <v>0.64</v>
+      </c>
+      <c r="AB12">
+        <v>2.05</v>
+      </c>
+      <c r="AC12">
+        <v>1.35</v>
+      </c>
+      <c r="AD12">
+        <v>3.4</v>
+      </c>
+      <c r="AE12">
+        <v>1.41</v>
+      </c>
+      <c r="AF12">
+        <v>9.5</v>
+      </c>
+      <c r="AG12">
+        <v>3.48</v>
+      </c>
+      <c r="AH12">
         <v>1.14</v>
       </c>
-      <c r="R12">
-        <v>5</v>
-      </c>
-      <c r="S12">
-        <v>1.45</v>
-      </c>
-      <c r="T12">
-        <v>2.52</v>
-      </c>
-      <c r="U12">
-        <v>1.62</v>
-      </c>
-      <c r="V12">
-        <v>2.15</v>
-      </c>
-      <c r="W12">
-        <v>1.06</v>
-      </c>
-      <c r="X12">
-        <v>1.17</v>
-      </c>
-      <c r="Y12">
-        <v>2.85</v>
-      </c>
-      <c r="Z12">
-        <v>1.86</v>
-      </c>
-      <c r="AA12">
-        <v>0.43</v>
-      </c>
-      <c r="AB12">
-        <v>1.64</v>
-      </c>
-      <c r="AC12">
-        <v>1.13</v>
-      </c>
-      <c r="AD12">
-        <v>2.77</v>
-      </c>
-      <c r="AE12">
-        <v>1.26</v>
-      </c>
-      <c r="AF12">
-        <v>10</v>
-      </c>
-      <c r="AG12">
-        <v>4.64</v>
-      </c>
-      <c r="AH12">
-        <v>1.13</v>
-      </c>
       <c r="AI12">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="AJ12">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AK12">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="AL12">
+        <v>1.57</v>
+      </c>
+      <c r="AM12">
+        <v>2.33</v>
+      </c>
+      <c r="AN12">
+        <v>1.94</v>
+      </c>
+      <c r="AO12">
+        <v>1.85</v>
+      </c>
+      <c r="AP12">
+        <v>2.42</v>
+      </c>
+      <c r="AQ12">
         <v>1.53</v>
-      </c>
-      <c r="AM12">
-        <v>2.43</v>
-      </c>
-      <c r="AN12">
-        <v>1.88</v>
-      </c>
-      <c r="AO12">
-        <v>1.92</v>
-      </c>
-      <c r="AP12">
-        <v>2.34</v>
-      </c>
-      <c r="AQ12">
-        <v>1.57</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2279,7 +2279,7 @@
         <v>1.1</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L13">
         <v>21</v>
@@ -2303,10 +2303,10 @@
         <v>8.699999999999999</v>
       </c>
       <c r="S13">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="T13">
-        <v>2.63</v>
+        <v>4.2</v>
       </c>
       <c r="U13">
         <v>1.95</v>
@@ -2407,13 +2407,13 @@
         <v>2.9</v>
       </c>
       <c r="J14">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="K14">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L14">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="M14">
         <v>1.29</v>
@@ -2434,10 +2434,10 @@
         <v>4.5</v>
       </c>
       <c r="S14">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="T14">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
         <v>1.5</v>
@@ -2538,13 +2538,13 @@
         <v>5.5</v>
       </c>
       <c r="J15">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="K15">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="M15">
         <v>1.29</v>
@@ -2565,10 +2565,10 @@
         <v>4.75</v>
       </c>
       <c r="S15">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="T15">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="U15">
         <v>1.67</v>
@@ -2669,13 +2669,13 @@
         <v>3.5</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="K16">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M16">
         <v>1.22</v>
@@ -2791,22 +2791,22 @@
         <v>95</v>
       </c>
       <c r="G17">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>1.83</v>
       </c>
       <c r="I17">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K17">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="L17">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
         <v>1.55</v>
@@ -2821,10 +2821,10 @@
         <v>2</v>
       </c>
       <c r="Q17">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R17">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="S17">
         <v>2.75</v>
@@ -2863,13 +2863,13 @@
         <v>2.4</v>
       </c>
       <c r="AE17">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AF17">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="AG17">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AH17">
         <v>1.36</v>
@@ -2922,22 +2922,22 @@
         <v>96</v>
       </c>
       <c r="G18">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="H18">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I18">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="K18">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M18">
         <v>1.45</v>
@@ -2958,16 +2958,16 @@
         <v>2.88</v>
       </c>
       <c r="S18">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="T18">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U18">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V18">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W18">
         <v>1.14</v>
@@ -2997,10 +2997,10 @@
         <v>1.44</v>
       </c>
       <c r="AF18">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="AG18">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="AH18">
         <v>1.28</v>
@@ -3053,22 +3053,22 @@
         <v>97</v>
       </c>
       <c r="G19">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H19">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J19">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M19">
         <v>1.45</v>
@@ -3089,10 +3089,10 @@
         <v>2.8</v>
       </c>
       <c r="S19">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="T19">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U19">
         <v>2</v>
